--- a/ig/ch-elm/StructureDefinition-ch-elm-quantity-arbu.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-quantity-arbu.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-quantity-arbu.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-quantity-arbu.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
